--- a/data/trans_orig/P2405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A905CC-60F6-4D82-A83D-F08B80342B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4A3B1F-DBCD-406D-98A9-14D821B49D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB519B9A-6664-4169-B44B-C2E24CE1B733}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30343FA3-5534-4FC9-858D-664F753CCB26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="187">
   <si>
     <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,477 +76,471 @@
     <t>1,89%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
+    <t>98,66%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
@@ -568,10 +562,7 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -580,37 +571,34 @@
     <t>0,14%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
+    <t>99,2%</t>
+  </si>
+  <si>
     <t>99,86%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>99,37%</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9241DB41-663D-4F91-8A75-0DFD853CB8DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA33C23-3BF7-469B-8E17-CCB7F6D3D9A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,13 +1614,13 @@
         <v>5023</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -1641,13 +1629,13 @@
         <v>19706</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1650,13 @@
         <v>1370598</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>841</v>
@@ -1677,13 +1665,13 @@
         <v>858307</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>2177</v>
@@ -1692,13 +1680,13 @@
         <v>2228906</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1742,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D0298C-D6E6-49B8-8DA5-96697CA1A1AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0E9A8-F945-44C3-98C7-0B69861D8969}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1790,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1897,13 +1885,13 @@
         <v>4628</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1918,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1927,13 +1915,13 @@
         <v>4628</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,7 +1936,7 @@
         <v>330377</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>88</v>
@@ -2505,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2524,7 +2512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F188FA0-2748-4FC0-BA58-4C0C10D94E9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E1102-F059-4602-8BB4-03AF799D0BBA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2663,13 +2651,13 @@
         <v>2850</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2678,13 +2666,13 @@
         <v>12168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2687,13 @@
         <v>454096</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>175</v>
@@ -2714,13 +2702,13 @@
         <v>182038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>632</v>
@@ -2729,13 +2717,13 @@
         <v>636133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,10 +2794,10 @@
         <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2818,13 +2806,13 @@
         <v>1879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2833,13 +2821,13 @@
         <v>16614</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,10 +2845,10 @@
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>854</v>
@@ -2869,10 +2857,10 @@
         <v>887786</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2884,10 +2872,10 @@
         <v>2030136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>89</v>
@@ -2964,7 +2952,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2979,7 +2967,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2994,7 +2982,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3027,7 +3015,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3042,7 +3030,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3113,13 +3101,13 @@
         <v>24052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3128,13 +3116,13 @@
         <v>4729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3143,13 +3131,13 @@
         <v>28781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3152,13 @@
         <v>1830953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>1243</v>
@@ -3179,13 +3167,13 @@
         <v>1293709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>2972</v>
@@ -3194,13 +3182,13 @@
         <v>3124662</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3244,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4A3B1F-DBCD-406D-98A9-14D821B49D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C8A90D7-ED55-45CB-AF85-35989BE3863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30343FA3-5534-4FC9-858D-664F753CCB26}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{676B8962-C7F0-4810-B808-370D615395E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
   <si>
     <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>1,37%</t>
@@ -88,421 +88,415 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>4,67%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>96,84%</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -514,13 +508,10 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -532,13 +523,10 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,66%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -562,7 +550,7 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -571,34 +559,34 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>99,17%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
     <t>99,86%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA33C23-3BF7-469B-8E17-CCB7F6D3D9A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE78FD6-7562-4C87-A0B6-7E013BD0A889}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1614,13 +1602,13 @@
         <v>5023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -1629,13 +1617,13 @@
         <v>19706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1653,13 @@
         <v>858307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>2177</v>
@@ -1680,10 +1668,10 @@
         <v>2228906</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>77</v>
@@ -1761,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0E9A8-F945-44C3-98C7-0B69861D8969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A9B19-753E-42C4-98AE-D4E7B434A5AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,13 +2043,13 @@
         <v>2967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -2070,13 +2058,13 @@
         <v>25471</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2079,13 @@
         <v>831542</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>580</v>
@@ -2106,10 +2094,10 @@
         <v>631777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -2121,13 +2109,13 @@
         <v>1463318</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2183,13 @@
         <v>2896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2210,13 +2198,13 @@
         <v>904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2225,13 +2213,13 @@
         <v>3800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,10 +2234,10 @@
         <v>158540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -2261,10 +2249,10 @@
         <v>137504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2276,13 +2264,13 @@
         <v>296044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2338,13 @@
         <v>30027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2365,13 +2353,13 @@
         <v>3872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2380,13 +2368,13 @@
         <v>33898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2389,13 @@
         <v>1320459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>891</v>
@@ -2416,13 +2404,13 @@
         <v>969317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>2127</v>
@@ -2431,13 +2419,13 @@
         <v>2289777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E1102-F059-4602-8BB4-03AF799D0BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE791D6-5B57-4C58-93EB-30B7A859931B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2529,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2636,13 +2624,13 @@
         <v>9317</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2651,13 +2639,13 @@
         <v>2850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2666,13 +2654,13 @@
         <v>12168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2675,13 @@
         <v>454096</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>175</v>
@@ -2702,13 +2690,13 @@
         <v>182038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>632</v>
@@ -2717,13 +2705,13 @@
         <v>636133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2779,13 @@
         <v>14735</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2806,13 +2794,13 @@
         <v>1879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2821,13 +2809,13 @@
         <v>16614</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2830,13 @@
         <v>1142351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>854</v>
@@ -2857,10 +2845,10 @@
         <v>887786</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2872,13 +2860,13 @@
         <v>2030136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,7 +2940,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2967,7 +2955,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2982,7 +2970,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +2988,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3015,7 +3003,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3030,7 +3018,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3101,13 +3089,13 @@
         <v>24052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3116,13 +3104,13 @@
         <v>4729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3131,13 +3119,13 @@
         <v>28781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3140,13 @@
         <v>1830953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>1243</v>
@@ -3167,13 +3155,13 @@
         <v>1293709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>2972</v>
@@ -3182,13 +3170,13 @@
         <v>3124662</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C8A90D7-ED55-45CB-AF85-35989BE3863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15260D07-6962-4BB5-B465-2DC1380D5389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{676B8962-C7F0-4810-B808-370D615395E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83010B99-A42C-412A-90E0-5460534EBD11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="161">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,64 +70,58 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,454 +130,394 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
   </si>
   <si>
     <t>99,41%</t>
@@ -998,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE78FD6-7562-4C87-A0B6-7E013BD0A889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A733769E-3535-4D0B-B5E9-3E53D6A7F425}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1155,61 +1089,61 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1031</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1023610</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>360</v>
-      </c>
-      <c r="D5" s="7">
-        <v>367528</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1289</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1312691</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>170</v>
-      </c>
-      <c r="I5" s="7">
-        <v>174119</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2320</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2336300</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>530</v>
-      </c>
-      <c r="N5" s="7">
-        <v>541646</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,54 +1152,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>366</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="7">
-        <v>374599</v>
+        <v>1030681</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>172</v>
+        <v>1291</v>
       </c>
       <c r="I6" s="7">
-        <v>176541</v>
+        <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>538</v>
+        <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>551140</v>
+        <v>2345794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1277,13 +1211,13 @@
         <v>5750</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1295,10 +1229,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1307,64 +1241,64 @@
         <v>5750</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>793</v>
+        <v>1644</v>
       </c>
       <c r="D8" s="7">
-        <v>812056</v>
+        <v>1687662</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1554</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1587673</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3198</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3275336</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>540</v>
-      </c>
-      <c r="I8" s="7">
-        <v>548056</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1333</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1360112</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,54 +1307,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>798</v>
+        <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>817806</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>540</v>
+        <v>1554</v>
       </c>
       <c r="I9" s="7">
-        <v>548056</v>
+        <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1338</v>
+        <v>3203</v>
       </c>
       <c r="N9" s="7">
-        <v>1365862</v>
+        <v>3281086</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1432,13 +1366,13 @@
         <v>1861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1447,13 +1381,13 @@
         <v>2600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1462,64 +1396,64 @@
         <v>4462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>525</v>
       </c>
       <c r="D11" s="7">
-        <v>191015</v>
+        <v>549547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
-        <v>131</v>
+        <v>450</v>
       </c>
       <c r="I11" s="7">
-        <v>136134</v>
+        <v>473812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
-        <v>314</v>
+        <v>975</v>
       </c>
       <c r="N11" s="7">
-        <v>327147</v>
+        <v>1023358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,49 +1462,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>185</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>192876</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>138734</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>331609</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1521,13 @@
         <v>14683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1602,13 +1536,13 @@
         <v>5023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -1617,64 +1551,64 @@
         <v>19706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>1336</v>
+        <v>3200</v>
       </c>
       <c r="D14" s="7">
-        <v>1370598</v>
+        <v>3260818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>841</v>
+        <v>3293</v>
       </c>
       <c r="I14" s="7">
-        <v>858307</v>
+        <v>3374175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>2177</v>
+        <v>6493</v>
       </c>
       <c r="N14" s="7">
-        <v>2228906</v>
+        <v>6634992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,54 +1617,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A9B19-753E-42C4-98AE-D4E7B434A5AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44331E36-65FC-46E7-A74F-9D4E0A580645}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1766,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1873,13 +1807,13 @@
         <v>4628</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1891,10 +1825,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1903,64 +1837,64 @@
         <v>4628</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>313</v>
+        <v>903</v>
       </c>
       <c r="D5" s="7">
-        <v>330377</v>
+        <v>970015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>186</v>
+        <v>1247</v>
       </c>
       <c r="I5" s="7">
-        <v>200037</v>
+        <v>1337796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
-        <v>499</v>
+        <v>2150</v>
       </c>
       <c r="N5" s="7">
-        <v>530414</v>
+        <v>2307812</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,54 +1903,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>318</v>
+        <v>908</v>
       </c>
       <c r="D6" s="7">
-        <v>335005</v>
+        <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>186</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>200037</v>
+        <v>1337796</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>504</v>
+        <v>2155</v>
       </c>
       <c r="N6" s="7">
-        <v>535042</v>
+        <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2028,13 +1962,13 @@
         <v>22503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2043,13 +1977,13 @@
         <v>2967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -2058,64 +1992,64 @@
         <v>25471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1832</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1939484</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1628</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1750787</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3460</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3690269</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
-        <v>779</v>
-      </c>
-      <c r="D8" s="7">
-        <v>831542</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="7">
-        <v>580</v>
-      </c>
-      <c r="I8" s="7">
-        <v>631777</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1359</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1463318</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,54 +2058,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>801</v>
+        <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>854045</v>
+        <v>1961987</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>583</v>
+        <v>1631</v>
       </c>
       <c r="I9" s="7">
-        <v>634744</v>
+        <v>1753754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1384</v>
+        <v>3485</v>
       </c>
       <c r="N9" s="7">
-        <v>1488789</v>
+        <v>3715740</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2183,13 +2117,13 @@
         <v>2896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2198,13 +2132,13 @@
         <v>904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2213,64 +2147,64 @@
         <v>3800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>144</v>
+        <v>436</v>
       </c>
       <c r="D11" s="7">
-        <v>158540</v>
+        <v>478285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>410</v>
+      </c>
+      <c r="I11" s="7">
+        <v>456713</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7">
+        <v>846</v>
+      </c>
+      <c r="N11" s="7">
+        <v>934998</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="7">
-        <v>125</v>
-      </c>
-      <c r="I11" s="7">
-        <v>137504</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7">
-        <v>269</v>
-      </c>
-      <c r="N11" s="7">
-        <v>296044</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2213,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>161436</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="I12" s="7">
-        <v>138408</v>
+        <v>457617</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>849</v>
       </c>
       <c r="N12" s="7">
-        <v>299844</v>
+        <v>938798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2272,13 @@
         <v>30027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2353,13 +2287,13 @@
         <v>3872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2368,64 +2302,64 @@
         <v>33898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>1236</v>
+        <v>3171</v>
       </c>
       <c r="D14" s="7">
-        <v>1320459</v>
+        <v>3387785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
-        <v>891</v>
+        <v>3285</v>
       </c>
       <c r="I14" s="7">
-        <v>969317</v>
+        <v>3545295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
-        <v>2127</v>
+        <v>6456</v>
       </c>
       <c r="N14" s="7">
-        <v>2289777</v>
+        <v>6933080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,54 +2368,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1265</v>
+        <v>3200</v>
       </c>
       <c r="D15" s="7">
-        <v>1350486</v>
+        <v>3417812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>895</v>
+        <v>3289</v>
       </c>
       <c r="I15" s="7">
-        <v>973189</v>
+        <v>3549167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>2160</v>
+        <v>6489</v>
       </c>
       <c r="N15" s="7">
-        <v>2323675</v>
+        <v>6966978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE791D6-5B57-4C58-93EB-30B7A859931B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12348649-37C5-49F8-ADA8-7292F67B67AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2624,13 +2558,13 @@
         <v>9317</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2639,13 +2573,13 @@
         <v>2850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2654,64 +2588,64 @@
         <v>12168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>457</v>
+        <v>750</v>
       </c>
       <c r="D5" s="7">
-        <v>454096</v>
+        <v>742299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
-        <v>175</v>
+        <v>887</v>
       </c>
       <c r="I5" s="7">
-        <v>182038</v>
+        <v>989416</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
-        <v>632</v>
+        <v>1637</v>
       </c>
       <c r="N5" s="7">
-        <v>636133</v>
+        <v>1731713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,54 +2654,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>466</v>
+        <v>759</v>
       </c>
       <c r="D6" s="7">
-        <v>463413</v>
+        <v>751616</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>890</v>
       </c>
       <c r="I6" s="7">
-        <v>184888</v>
+        <v>992266</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>644</v>
+        <v>1649</v>
       </c>
       <c r="N6" s="7">
-        <v>648301</v>
+        <v>1743881</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2779,13 +2713,13 @@
         <v>14735</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2794,13 +2728,13 @@
         <v>1879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2809,64 +2743,64 @@
         <v>16614</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>1064</v>
+        <v>1934</v>
       </c>
       <c r="D8" s="7">
-        <v>1142351</v>
+        <v>2056783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>854</v>
+        <v>1901</v>
       </c>
       <c r="I8" s="7">
-        <v>887786</v>
+        <v>1980906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
-        <v>1918</v>
+        <v>3835</v>
       </c>
       <c r="N8" s="7">
-        <v>2030136</v>
+        <v>4037689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,54 +2809,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1078</v>
+        <v>1948</v>
       </c>
       <c r="D9" s="7">
-        <v>1157086</v>
+        <v>2071518</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>856</v>
+        <v>1903</v>
       </c>
       <c r="I9" s="7">
-        <v>889665</v>
+        <v>1982785</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1934</v>
+        <v>3851</v>
       </c>
       <c r="N9" s="7">
-        <v>2046750</v>
+        <v>4054303</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2937,10 +2871,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2952,10 +2886,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2967,61 +2901,61 @@
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>208</v>
+        <v>497</v>
       </c>
       <c r="D11" s="7">
-        <v>234506</v>
+        <v>542817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="I11" s="7">
-        <v>223885</v>
+        <v>547284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
-        <v>422</v>
+        <v>1021</v>
       </c>
       <c r="N11" s="7">
-        <v>458391</v>
+        <v>1090100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,49 +2964,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>208</v>
+        <v>497</v>
       </c>
       <c r="D12" s="7">
-        <v>234506</v>
+        <v>542817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="I12" s="7">
-        <v>223885</v>
+        <v>547284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>422</v>
+        <v>1021</v>
       </c>
       <c r="N12" s="7">
-        <v>458391</v>
+        <v>1090100</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3023,13 @@
         <v>24052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3104,13 +3038,13 @@
         <v>4729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3119,64 +3053,64 @@
         <v>28781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>1729</v>
+        <v>3181</v>
       </c>
       <c r="D14" s="7">
-        <v>1830953</v>
+        <v>3341899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>1243</v>
+        <v>3312</v>
       </c>
       <c r="I14" s="7">
-        <v>1293709</v>
+        <v>3517605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
-        <v>2972</v>
+        <v>6493</v>
       </c>
       <c r="N14" s="7">
-        <v>3124662</v>
+        <v>6859504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,54 +3119,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1752</v>
+        <v>3204</v>
       </c>
       <c r="D15" s="7">
-        <v>1855005</v>
+        <v>3365951</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>1248</v>
+        <v>3317</v>
       </c>
       <c r="I15" s="7">
-        <v>1298438</v>
+        <v>3522334</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>3000</v>
+        <v>6521</v>
       </c>
       <c r="N15" s="7">
-        <v>3153443</v>
+        <v>6888285</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
